--- a/TestDoc/TestCase_Turbal.xlsx
+++ b/TestDoc/TestCase_Turbal.xlsx
@@ -373,10 +373,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>27</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>29</v>

--- a/TestDoc/TestCase_Turbal.xlsx
+++ b/TestDoc/TestCase_Turbal.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Precondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Register a new account on https://ru.coursera.org/?authMode=signup</t>
+    <t xml:space="preserve">Register a new account on https://coursera.org/?authMode=signup</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -373,10 +373,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
@@ -606,7 +606,7 @@
     <mergeCell ref="B18:D18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="Register a new account on https://ru.coursera.org/?authMode=signup"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://coursera.org/?authMode=signup"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
